--- a/docs/excel.xlsx
+++ b/docs/excel.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\Ynov\go\projet-red\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1002E0-6908-47A0-8042-9FCBEE7BF0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,11 +24,88 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+  <si>
+    <t>Tache</t>
+  </si>
+  <si>
+    <t>Effort</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Partie 1</t>
+  </si>
+  <si>
+    <t>Création du personnage</t>
+  </si>
+  <si>
+    <t>Initialisation du personnage</t>
+  </si>
+  <si>
+    <t>Affichage des informations du personnages</t>
+  </si>
+  <si>
+    <t>Acces à l'inventaire</t>
+  </si>
+  <si>
+    <t>Potion de vie</t>
+  </si>
+  <si>
+    <t>Marchand</t>
+  </si>
+  <si>
+    <t>Wasted!</t>
+  </si>
+  <si>
+    <t>Potion de poison</t>
+  </si>
+  <si>
+    <t>Wingardium leviosa</t>
+  </si>
+  <si>
+    <t>Amélioration de la création du personnage</t>
+  </si>
+  <si>
+    <t>Limite d'inventaire</t>
+  </si>
+  <si>
+    <t>Création du menu</t>
+  </si>
+  <si>
+    <t>optionnel 1</t>
+  </si>
+  <si>
+    <t>optionnel 2</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -37,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -45,12 +128,183 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +584,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/excel.xlsx
+++ b/docs/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\Ynov\go\projet-red\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1002E0-6908-47A0-8042-9FCBEE7BF0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0016B04D-69FE-4381-831C-FE1664ADB65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Tache</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>TODO</t>
+  </si>
+  <si>
+    <t>GOING</t>
+  </si>
+  <si>
+    <t>DONE</t>
   </si>
 </sst>
 </file>
@@ -112,15 +118,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -248,26 +272,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -290,12 +299,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -303,6 +306,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -585,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
@@ -595,12 +607,14 @@
   <cols>
     <col min="1" max="1" width="16.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="57.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="18.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -612,129 +626,138 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C2" s="11"/>
+      <c r="D2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C3" s="11"/>
+      <c r="D3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C4" s="11"/>
+      <c r="D4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C5" s="11"/>
+      <c r="D5" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C6" s="11"/>
+      <c r="D6" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C7" s="11"/>
+      <c r="D7" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C8" s="11"/>
+      <c r="D8" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C9" s="11"/>
+      <c r="D9" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C10" s="11"/>
+      <c r="D10" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C11" s="11"/>
+      <c r="D11" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="11"/>
+      <c r="D12" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="15" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/excel.xlsx
+++ b/docs/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\Ynov\go\projet-red\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0016B04D-69FE-4381-831C-FE1664ADB65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F37D74E-9178-4193-A3D9-C9E9E57D20D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Tache</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>DONE</t>
+  </si>
+  <si>
+    <t>FUCKED UP</t>
+  </si>
+  <si>
+    <t>FUCKED UP BUT OK</t>
+  </si>
+  <si>
+    <t>NEED IMPROVEMENT</t>
   </si>
 </sst>
 </file>
@@ -118,7 +127,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,8 +152,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -272,11 +299,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -311,10 +362,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -600,7 +675,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -608,9 +683,9 @@
     <col min="1" max="1" width="16.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="57.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" style="10" customWidth="1"/>
     <col min="5" max="5" width="4.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -625,6 +700,9 @@
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="15" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
@@ -637,7 +715,7 @@
       <c r="D2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -647,10 +725,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="11"/>
-      <c r="D3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="D3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -663,8 +741,8 @@
       <c r="D4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>18</v>
+      <c r="F4" s="18" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -676,6 +754,9 @@
       <c r="D5" s="13" t="s">
         <v>20</v>
       </c>
+      <c r="F5" s="19" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
@@ -683,8 +764,11 @@
         <v>7</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="15" t="s">
-        <v>18</v>
+      <c r="D6" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -693,8 +777,8 @@
         <v>8</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="15" t="s">
-        <v>18</v>
+      <c r="D7" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -703,7 +787,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -713,7 +797,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -723,7 +807,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -733,7 +817,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -745,7 +829,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -757,7 +841,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="23" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/excel.xlsx
+++ b/docs/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\Ynov\go\projet-red\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F37D74E-9178-4193-A3D9-C9E9E57D20D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0059AF77-82ED-4DA9-A58F-E66AE26A7816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>Tache</t>
   </si>
@@ -75,12 +75,6 @@
     <t>Création du menu</t>
   </si>
   <si>
-    <t>optionnel 1</t>
-  </si>
-  <si>
-    <t>optionnel 2</t>
-  </si>
-  <si>
     <t>TODO</t>
   </si>
   <si>
@@ -97,6 +91,66 @@
   </si>
   <si>
     <t>NEED IMPROVEMENT</t>
+  </si>
+  <si>
+    <t>Partie 2</t>
+  </si>
+  <si>
+    <t>Money, money, money</t>
+  </si>
+  <si>
+    <t>Two for the Price of One</t>
+  </si>
+  <si>
+    <t>Gimme! Gimme! Gimme!</t>
+  </si>
+  <si>
+    <t>Mamma Mia</t>
+  </si>
+  <si>
+    <t>On and on and on</t>
+  </si>
+  <si>
+    <t>optionnel 1.1</t>
+  </si>
+  <si>
+    <t>optionnel 1.2</t>
+  </si>
+  <si>
+    <t>optionnel 2.1</t>
+  </si>
+  <si>
+    <t>Partie 3</t>
+  </si>
+  <si>
+    <t>La Chose</t>
+  </si>
+  <si>
+    <t>Fighter Squad</t>
+  </si>
+  <si>
+    <t>A.I Intelligence artificielle</t>
+  </si>
+  <si>
+    <t>Ready Player One</t>
+  </si>
+  <si>
+    <t>Duel</t>
+  </si>
+  <si>
+    <t>Partie 4</t>
+  </si>
+  <si>
+    <t>Initiative</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>Combat magique</t>
+  </si>
+  <si>
+    <t>Ressource de mana</t>
   </si>
 </sst>
 </file>
@@ -127,7 +181,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,8 +224,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -194,135 +266,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -333,38 +276,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -383,15 +300,33 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,178 +607,325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="57.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="31.85546875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="15" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="12"/>
+      <c r="B3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="12"/>
+      <c r="B4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="12"/>
+      <c r="B5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="F5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="12"/>
+      <c r="B6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="F6" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="12"/>
+      <c r="B7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="F7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="12"/>
+      <c r="B8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="F8" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="12"/>
+      <c r="B9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="F9" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="12"/>
+      <c r="B10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="F10" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="12"/>
+      <c r="B11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="21" t="s">
+      <c r="B14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="23" t="s">
-        <v>18</v>
-      </c>
+      <c r="C14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="14"/>
+      <c r="B15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="14"/>
+      <c r="B16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="14"/>
+      <c r="B17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="16"/>
+      <c r="B20" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="16"/>
+      <c r="B21" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="16"/>
+      <c r="B22" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="16"/>
+      <c r="B23" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/excel.xlsx
+++ b/docs/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\Ynov\go\projet-red\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0059AF77-82ED-4DA9-A58F-E66AE26A7816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C48C99-3DC5-40B1-ABB5-1A32B57AA5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="1410" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -762,8 +762,8 @@
       <c r="B12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>17</v>
+      <c r="C12" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -774,8 +774,8 @@
       <c r="B13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>16</v>
+      <c r="C13" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D13" s="4"/>
     </row>

--- a/docs/excel.xlsx
+++ b/docs/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\Ynov\go\projet-red\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C48C99-3DC5-40B1-ABB5-1A32B57AA5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA2F30C-581A-4D41-8331-C24BFB882B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1410" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -685,8 +685,8 @@
       <c r="B6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>21</v>
+      <c r="C6" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D6" s="4"/>
       <c r="F6" s="6" t="s">

--- a/docs/excel.xlsx
+++ b/docs/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\Ynov\go\projet-red\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA2F30C-581A-4D41-8331-C24BFB882B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866299A5-CB72-45A8-8C77-06995AF640EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
   <si>
     <t>Tache</t>
   </si>
@@ -151,13 +151,19 @@
   </si>
   <si>
     <t>Ressource de mana</t>
+  </si>
+  <si>
+    <t>Auteur</t>
+  </si>
+  <si>
+    <t>BB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,8 +186,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,25 +228,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,10 +275,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -279,57 +288,82 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -607,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -619,315 +653,434 @@
     <col min="2" max="2" width="57.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="E1" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
-      <c r="B3" s="17" t="s">
+      <c r="C2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
-      <c r="B4" s="17" t="s">
+      <c r="C3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
-      <c r="B5" s="17" t="s">
+      <c r="C4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="F5" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
-      <c r="B6" s="17" t="s">
+      <c r="C5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="F6" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
-      <c r="B7" s="17" t="s">
+      <c r="C6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="F7" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
-      <c r="B8" s="17" t="s">
+      <c r="C7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="F8" s="8" t="s">
+      <c r="C8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0.03</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
-      <c r="B9" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="F9" s="9" t="s">
+      <c r="D13" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="25">
+        <v>0</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="9"/>
+      <c r="B15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="9"/>
+      <c r="B16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="9"/>
+      <c r="B17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="29" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
-      <c r="B10" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="F10" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
-      <c r="B11" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="D18" s="26"/>
+      <c r="E18" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="27">
+        <v>0</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="11"/>
+      <c r="B20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="11"/>
+      <c r="B21" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="11"/>
+      <c r="B22" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="11"/>
+      <c r="B23" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="14"/>
-      <c r="B15" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="D24" s="28"/>
+      <c r="E24" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
-      <c r="B16" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="D25" s="28"/>
+      <c r="E25" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
-      <c r="B17" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="D26" s="28"/>
+      <c r="E26" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="16"/>
-      <c r="B20" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="16"/>
-      <c r="B21" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="16"/>
-      <c r="B22" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="16"/>
-      <c r="B23" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/docs/excel.xlsx
+++ b/docs/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\Ynov\go\projet-red\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866299A5-CB72-45A8-8C77-06995AF640EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941CCEE2-77A8-4A95-B61F-2313F055A1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -279,7 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -356,9 +356,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -643,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -976,8 +973,8 @@
       <c r="B20" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="31" t="s">
-        <v>21</v>
+      <c r="C20" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27" t="s">
@@ -989,8 +986,8 @@
       <c r="B21" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="31" t="s">
-        <v>21</v>
+      <c r="C21" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D21" s="27">
         <v>0.05</v>
@@ -1004,8 +1001,8 @@
       <c r="B22" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="31" t="s">
-        <v>21</v>
+      <c r="C22" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27" t="s">
@@ -1017,8 +1014,8 @@
       <c r="B23" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="31" t="s">
-        <v>21</v>
+      <c r="C23" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27" t="s">

--- a/docs/excel.xlsx
+++ b/docs/excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\Ynov\go\projet-red\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\projet-red\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941CCEE2-77A8-4A95-B61F-2313F055A1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DC06C2-F510-430B-AA24-BC07A4A79493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
   <si>
     <t>Tache</t>
   </si>
@@ -157,13 +157,22 @@
   </si>
   <si>
     <t>BB</t>
+  </si>
+  <si>
+    <t>Optionnels</t>
+  </si>
+  <si>
+    <t>Loots from fight</t>
+  </si>
+  <si>
+    <t>*Duel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +215,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +266,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -279,7 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -293,9 +327,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -327,12 +358,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -355,6 +380,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -638,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:Y154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -651,430 +709,1349 @@
     <col min="3" max="3" width="33.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="36"/>
+    <col min="7" max="7" width="31.85546875" style="34" customWidth="1"/>
+    <col min="8" max="25" width="9.140625" style="34"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37"/>
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="37" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="23">
+      <c r="C2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="20">
         <v>0.5</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="21" t="s">
+      <c r="E2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="23">
+      <c r="C3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="20">
         <v>0</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
-      <c r="B4" s="12" t="s">
+      <c r="E3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="23">
+      <c r="C4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="20">
         <v>0</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="22" t="s">
+      <c r="E4" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="39" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="23">
+      <c r="C5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="20">
         <v>0.02</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="21" t="s">
+      <c r="E5" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="23">
+      <c r="C6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="20">
         <v>0.35</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="22" t="s">
+      <c r="E6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="23">
+      <c r="C7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="20">
         <v>0.05</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="21" t="s">
+      <c r="E7" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="38" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
+      <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="23">
+      <c r="C8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="20">
         <v>0.15</v>
       </c>
-      <c r="E8" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
-      <c r="B9" s="12" t="s">
+      <c r="E8" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="23">
+      <c r="C9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="20">
         <v>0.03</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
-      <c r="B10" s="12" t="s">
+      <c r="E9" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+      <c r="B10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="23">
+      <c r="C10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="20">
         <v>0.05</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
-      <c r="B11" s="12" t="s">
+      <c r="E10" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="23">
+      <c r="C11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="20">
         <v>0.1</v>
       </c>
-      <c r="E11" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="E11" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="24">
+      <c r="C12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="21">
         <v>0.03</v>
       </c>
-      <c r="E12" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="E12" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="21">
         <v>0.05</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+      <c r="E13" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="22">
         <v>0</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
-      <c r="B15" s="14" t="s">
+      <c r="E14" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A15" s="8"/>
+      <c r="B15" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="9"/>
-      <c r="B16" s="14" t="s">
+      <c r="E15" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A16" s="8"/>
+      <c r="B16" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="22">
         <v>0.1</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="22" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="9"/>
-      <c r="B17" s="14" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="22">
         <v>0.15</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="22" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26" t="s">
-        <v>43</v>
-      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="24">
         <v>0</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="11"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27" t="s">
+      <c r="D20" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="11"/>
-      <c r="B21" s="16" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="15" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="E21" s="27" t="s">
+      <c r="D21" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="11"/>
-      <c r="B22" s="16" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27" t="s">
+      <c r="D22" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="11"/>
-      <c r="B23" s="16" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27" t="s">
+      <c r="D23" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="E23" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28" t="s">
-        <v>43</v>
-      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28" t="s">
-        <v>43</v>
-      </c>
+      <c r="D25" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28" t="s">
-        <v>43</v>
-      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28" t="s">
-        <v>43</v>
-      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="28"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="32"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="32"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="28"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="32"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="28"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="32"/>
+    </row>
+    <row r="33" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="33"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+    </row>
+    <row r="34" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="33"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+    </row>
+    <row r="35" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="33"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+    </row>
+    <row r="36" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="33"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+    </row>
+    <row r="37" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="33"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+    </row>
+    <row r="38" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="33"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+    </row>
+    <row r="39" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="33"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+    </row>
+    <row r="40" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="33"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+    </row>
+    <row r="41" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="33"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+    </row>
+    <row r="42" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="33"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+    </row>
+    <row r="43" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="33"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+    </row>
+    <row r="44" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="33"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+    </row>
+    <row r="45" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="33"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+    </row>
+    <row r="46" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="33"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+    </row>
+    <row r="47" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="33"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+    </row>
+    <row r="48" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="33"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+    </row>
+    <row r="49" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="33"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+    </row>
+    <row r="50" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="33"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+    </row>
+    <row r="51" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="33"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+    </row>
+    <row r="52" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="33"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+    </row>
+    <row r="53" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="33"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+    </row>
+    <row r="54" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="33"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+    </row>
+    <row r="55" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="33"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+    </row>
+    <row r="56" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="33"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+    </row>
+    <row r="57" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="33"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+    </row>
+    <row r="58" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="33"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+    </row>
+    <row r="59" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="33"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+    </row>
+    <row r="60" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="33"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+    </row>
+    <row r="61" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="33"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+    </row>
+    <row r="62" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="33"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+    </row>
+    <row r="63" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="33"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+    </row>
+    <row r="64" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="33"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+    </row>
+    <row r="65" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="33"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+    </row>
+    <row r="66" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="33"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+    </row>
+    <row r="67" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="33"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+    </row>
+    <row r="68" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="33"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+    </row>
+    <row r="69" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="33"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+    </row>
+    <row r="70" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="33"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+    </row>
+    <row r="71" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="33"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+    </row>
+    <row r="72" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="33"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+    </row>
+    <row r="73" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="33"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+    </row>
+    <row r="74" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="33"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+    </row>
+    <row r="75" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="33"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+    </row>
+    <row r="76" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="33"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+    </row>
+    <row r="77" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="33"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+    </row>
+    <row r="78" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="33"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+    </row>
+    <row r="79" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="33"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+    </row>
+    <row r="80" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="33"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+    </row>
+    <row r="81" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="33"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+    </row>
+    <row r="82" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="33"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+    </row>
+    <row r="83" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="33"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+    </row>
+    <row r="84" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="33"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+    </row>
+    <row r="85" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="33"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+    </row>
+    <row r="86" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="33"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+    </row>
+    <row r="87" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="33"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+    </row>
+    <row r="88" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="33"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+    </row>
+    <row r="89" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="33"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+    </row>
+    <row r="90" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="33"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+    </row>
+    <row r="91" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="33"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="36"/>
+    </row>
+    <row r="92" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="33"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+    </row>
+    <row r="93" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="33"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="36"/>
+    </row>
+    <row r="94" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="33"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="36"/>
+    </row>
+    <row r="95" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="33"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36"/>
+    </row>
+    <row r="96" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="33"/>
+      <c r="C96" s="35"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="36"/>
+    </row>
+    <row r="97" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="33"/>
+      <c r="C97" s="35"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36"/>
+    </row>
+    <row r="98" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="33"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="36"/>
+    </row>
+    <row r="99" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="33"/>
+      <c r="C99" s="35"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="36"/>
+    </row>
+    <row r="100" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="33"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="36"/>
+    </row>
+    <row r="101" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="33"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="36"/>
+    </row>
+    <row r="102" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="33"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="36"/>
+    </row>
+    <row r="103" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="33"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="36"/>
+    </row>
+    <row r="104" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="33"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="36"/>
+      <c r="F104" s="36"/>
+    </row>
+    <row r="105" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="33"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="36"/>
+      <c r="F105" s="36"/>
+    </row>
+    <row r="106" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="33"/>
+      <c r="C106" s="35"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="36"/>
+      <c r="F106" s="36"/>
+    </row>
+    <row r="107" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="33"/>
+      <c r="C107" s="35"/>
+      <c r="D107" s="35"/>
+      <c r="E107" s="36"/>
+      <c r="F107" s="36"/>
+    </row>
+    <row r="108" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="33"/>
+      <c r="C108" s="35"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="36"/>
+      <c r="F108" s="36"/>
+    </row>
+    <row r="109" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="33"/>
+      <c r="C109" s="35"/>
+      <c r="D109" s="35"/>
+      <c r="E109" s="36"/>
+      <c r="F109" s="36"/>
+    </row>
+    <row r="110" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="33"/>
+      <c r="C110" s="35"/>
+      <c r="D110" s="35"/>
+      <c r="E110" s="36"/>
+      <c r="F110" s="36"/>
+    </row>
+    <row r="111" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="33"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="35"/>
+      <c r="E111" s="36"/>
+      <c r="F111" s="36"/>
+    </row>
+    <row r="112" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="33"/>
+      <c r="C112" s="35"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="36"/>
+      <c r="F112" s="36"/>
+    </row>
+    <row r="113" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="33"/>
+      <c r="C113" s="35"/>
+      <c r="D113" s="35"/>
+      <c r="E113" s="36"/>
+      <c r="F113" s="36"/>
+    </row>
+    <row r="114" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="33"/>
+      <c r="C114" s="35"/>
+      <c r="D114" s="35"/>
+      <c r="E114" s="36"/>
+      <c r="F114" s="36"/>
+    </row>
+    <row r="115" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="33"/>
+      <c r="C115" s="35"/>
+      <c r="D115" s="35"/>
+      <c r="E115" s="36"/>
+      <c r="F115" s="36"/>
+    </row>
+    <row r="116" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="33"/>
+      <c r="C116" s="35"/>
+      <c r="D116" s="35"/>
+      <c r="E116" s="36"/>
+      <c r="F116" s="36"/>
+    </row>
+    <row r="117" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="33"/>
+      <c r="C117" s="35"/>
+      <c r="D117" s="35"/>
+      <c r="E117" s="36"/>
+      <c r="F117" s="36"/>
+    </row>
+    <row r="118" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="33"/>
+      <c r="C118" s="35"/>
+      <c r="D118" s="35"/>
+      <c r="E118" s="36"/>
+      <c r="F118" s="36"/>
+    </row>
+    <row r="119" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="33"/>
+      <c r="C119" s="35"/>
+      <c r="D119" s="35"/>
+      <c r="E119" s="36"/>
+      <c r="F119" s="36"/>
+    </row>
+    <row r="120" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="33"/>
+      <c r="C120" s="35"/>
+      <c r="D120" s="35"/>
+      <c r="E120" s="36"/>
+      <c r="F120" s="36"/>
+    </row>
+    <row r="121" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="33"/>
+      <c r="C121" s="35"/>
+      <c r="D121" s="35"/>
+      <c r="E121" s="36"/>
+      <c r="F121" s="36"/>
+    </row>
+    <row r="122" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="33"/>
+      <c r="C122" s="35"/>
+      <c r="D122" s="35"/>
+      <c r="E122" s="36"/>
+      <c r="F122" s="36"/>
+    </row>
+    <row r="123" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="33"/>
+      <c r="C123" s="35"/>
+      <c r="D123" s="35"/>
+      <c r="E123" s="36"/>
+      <c r="F123" s="36"/>
+    </row>
+    <row r="124" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="33"/>
+      <c r="C124" s="35"/>
+      <c r="D124" s="35"/>
+      <c r="E124" s="36"/>
+      <c r="F124" s="36"/>
+    </row>
+    <row r="125" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="33"/>
+      <c r="C125" s="35"/>
+      <c r="D125" s="35"/>
+      <c r="E125" s="36"/>
+      <c r="F125" s="36"/>
+    </row>
+    <row r="126" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="33"/>
+      <c r="C126" s="35"/>
+      <c r="D126" s="35"/>
+      <c r="E126" s="36"/>
+      <c r="F126" s="36"/>
+    </row>
+    <row r="127" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="33"/>
+      <c r="C127" s="35"/>
+      <c r="D127" s="35"/>
+      <c r="E127" s="36"/>
+      <c r="F127" s="36"/>
+    </row>
+    <row r="128" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="33"/>
+      <c r="C128" s="35"/>
+      <c r="D128" s="35"/>
+      <c r="E128" s="36"/>
+      <c r="F128" s="36"/>
+    </row>
+    <row r="129" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="33"/>
+      <c r="C129" s="35"/>
+      <c r="D129" s="35"/>
+      <c r="E129" s="36"/>
+      <c r="F129" s="36"/>
+    </row>
+    <row r="130" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="33"/>
+      <c r="C130" s="35"/>
+      <c r="D130" s="35"/>
+      <c r="E130" s="36"/>
+      <c r="F130" s="36"/>
+    </row>
+    <row r="131" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="33"/>
+      <c r="C131" s="35"/>
+      <c r="D131" s="35"/>
+      <c r="E131" s="36"/>
+      <c r="F131" s="36"/>
+    </row>
+    <row r="132" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="33"/>
+      <c r="C132" s="35"/>
+      <c r="D132" s="35"/>
+      <c r="E132" s="36"/>
+      <c r="F132" s="36"/>
+    </row>
+    <row r="133" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="33"/>
+      <c r="C133" s="35"/>
+      <c r="D133" s="35"/>
+      <c r="E133" s="36"/>
+      <c r="F133" s="36"/>
+    </row>
+    <row r="134" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="33"/>
+      <c r="C134" s="35"/>
+      <c r="D134" s="35"/>
+      <c r="E134" s="36"/>
+      <c r="F134" s="36"/>
+    </row>
+    <row r="135" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="33"/>
+      <c r="C135" s="35"/>
+      <c r="D135" s="35"/>
+      <c r="E135" s="36"/>
+      <c r="F135" s="36"/>
+    </row>
+    <row r="136" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="33"/>
+      <c r="C136" s="35"/>
+      <c r="D136" s="35"/>
+      <c r="E136" s="36"/>
+      <c r="F136" s="36"/>
+    </row>
+    <row r="137" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="33"/>
+      <c r="C137" s="35"/>
+      <c r="D137" s="35"/>
+      <c r="E137" s="36"/>
+      <c r="F137" s="36"/>
+    </row>
+    <row r="138" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="33"/>
+      <c r="C138" s="35"/>
+      <c r="D138" s="35"/>
+      <c r="E138" s="36"/>
+      <c r="F138" s="36"/>
+    </row>
+    <row r="139" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="33"/>
+      <c r="C139" s="35"/>
+      <c r="D139" s="35"/>
+      <c r="E139" s="36"/>
+      <c r="F139" s="36"/>
+    </row>
+    <row r="140" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="33"/>
+      <c r="C140" s="35"/>
+      <c r="D140" s="35"/>
+      <c r="E140" s="36"/>
+      <c r="F140" s="36"/>
+    </row>
+    <row r="141" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="33"/>
+      <c r="C141" s="35"/>
+      <c r="D141" s="35"/>
+      <c r="E141" s="36"/>
+      <c r="F141" s="36"/>
+    </row>
+    <row r="142" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="33"/>
+      <c r="C142" s="35"/>
+      <c r="D142" s="35"/>
+      <c r="E142" s="36"/>
+      <c r="F142" s="36"/>
+    </row>
+    <row r="143" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="33"/>
+      <c r="C143" s="35"/>
+      <c r="D143" s="35"/>
+      <c r="E143" s="36"/>
+      <c r="F143" s="36"/>
+    </row>
+    <row r="144" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="33"/>
+      <c r="C144" s="35"/>
+      <c r="D144" s="35"/>
+      <c r="E144" s="36"/>
+      <c r="F144" s="36"/>
+    </row>
+    <row r="145" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="33"/>
+      <c r="C145" s="35"/>
+      <c r="D145" s="35"/>
+      <c r="E145" s="36"/>
+      <c r="F145" s="36"/>
+    </row>
+    <row r="146" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="33"/>
+      <c r="C146" s="35"/>
+      <c r="D146" s="35"/>
+      <c r="E146" s="36"/>
+      <c r="F146" s="36"/>
+    </row>
+    <row r="147" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="33"/>
+      <c r="C147" s="35"/>
+      <c r="D147" s="35"/>
+      <c r="E147" s="36"/>
+      <c r="F147" s="36"/>
+    </row>
+    <row r="148" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="33"/>
+      <c r="C148" s="35"/>
+      <c r="D148" s="35"/>
+      <c r="E148" s="36"/>
+      <c r="F148" s="36"/>
+    </row>
+    <row r="149" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="33"/>
+      <c r="C149" s="35"/>
+      <c r="D149" s="35"/>
+      <c r="E149" s="36"/>
+      <c r="F149" s="36"/>
+    </row>
+    <row r="150" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="33"/>
+      <c r="C150" s="35"/>
+      <c r="D150" s="35"/>
+      <c r="E150" s="36"/>
+      <c r="F150" s="36"/>
+    </row>
+    <row r="151" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="33"/>
+      <c r="C151" s="35"/>
+      <c r="D151" s="35"/>
+      <c r="E151" s="36"/>
+      <c r="F151" s="36"/>
+    </row>
+    <row r="152" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="33"/>
+      <c r="C152" s="35"/>
+      <c r="D152" s="35"/>
+      <c r="E152" s="36"/>
+      <c r="F152" s="36"/>
+    </row>
+    <row r="153" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="33"/>
+      <c r="C153" s="35"/>
+      <c r="D153" s="35"/>
+      <c r="E153" s="36"/>
+      <c r="F153" s="36"/>
+    </row>
+    <row r="154" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="33"/>
+      <c r="C154" s="35"/>
+      <c r="D154" s="35"/>
+      <c r="E154" s="36"/>
+      <c r="F154" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/docs/excel.xlsx
+++ b/docs/excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\projet-red\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\Ynov\go\projet-red\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DC06C2-F510-430B-AA24-BC07A4A79493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C72882-9FD2-417C-AE93-BE94E98764E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
   <si>
     <t>Tache</t>
   </si>
@@ -166,13 +166,30 @@
   </si>
   <si>
     <t>*Duel</t>
+  </si>
+  <si>
+    <t>I saw it in the mirror</t>
+  </si>
+  <si>
+    <r>
+      <t>DONE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BUT NEED IMPROVEMENT</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,7 +234,12 @@
     </font>
     <font>
       <sz val="16"/>
-      <color theme="7" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -313,7 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -406,10 +428,16 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -696,17 +724,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y154"/>
+  <dimension ref="A1:Y155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="57.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="36"/>
@@ -815,7 +843,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="20">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>43</v>
@@ -833,7 +861,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="20">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>43</v>
@@ -884,7 +912,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="20">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>43</v>
@@ -931,7 +959,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="21">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>43</v>
@@ -944,8 +972,8 @@
       <c r="B13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="40" t="s">
-        <v>21</v>
+      <c r="C13" s="42" t="s">
+        <v>48</v>
       </c>
       <c r="D13" s="21">
         <v>0.05</v>
@@ -980,7 +1008,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="22">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>43</v>
@@ -989,13 +1017,13 @@
     <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="13" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="22">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>43</v>
@@ -1004,58 +1032,58 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="8"/>
+      <c r="B18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="22">
-        <v>0.15</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
+      <c r="C18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B19" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C19" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B20" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="24">
+      <c r="C20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="24">
         <v>0</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="10"/>
-      <c r="B20" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>46</v>
       </c>
       <c r="E20" s="24" t="s">
         <v>43</v>
@@ -1064,7 +1092,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>18</v>
@@ -1079,10 +1107,10 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>18</v>
+        <v>34</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>48</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>46</v>
@@ -1094,59 +1122,65 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="10"/>
+      <c r="B24" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="24">
-        <v>0.45</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
+      <c r="C24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="24">
+        <v>0.65</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B25" s="17" t="s">
         <v>38</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17" t="s">
-        <v>39</v>
       </c>
       <c r="C25" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="25">
-        <v>0.1</v>
-      </c>
+      <c r="D25" s="25"/>
       <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="16"/>
       <c r="B26" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
+        <v>39</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="16"/>
       <c r="B27" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="27" t="s">
         <v>16</v>
@@ -1155,28 +1189,32 @@
       <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B29" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="31">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="32"/>
+      <c r="C29" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="28"/>
@@ -1199,12 +1237,12 @@
       <c r="D32" s="30"/>
       <c r="E32" s="32"/>
     </row>
-    <row r="33" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="33"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="28"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="32"/>
     </row>
     <row r="34" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="33"/>
@@ -2053,6 +2091,13 @@
       <c r="E154" s="36"/>
       <c r="F154" s="36"/>
     </row>
+    <row r="155" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="33"/>
+      <c r="C155" s="35"/>
+      <c r="D155" s="35"/>
+      <c r="E155" s="36"/>
+      <c r="F155" s="36"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
